--- a/Deliverables/fase2-sprint2/content/ASVS_checklist.xlsx
+++ b/Deliverables/fase2-sprint2/content/ASVS_checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\João Veiga\RiderProjects\desofs2025_wed_pbs_1\Deliverables\fase2\content\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\João Veiga\RiderProjects\desofs2025_wed_pbs_1\Deliverables\fase2-sprint2\content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4454D506-8C31-4C4E-8EB4-2C5035105281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B942CC5-1B4F-46C3-A339-B5967157D5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" firstSheet="10" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ASVS Results" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="690">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="690">
   <si>
     <t>Security Category</t>
   </si>
@@ -3508,7 +3508,7 @@
                   <c:v>87.179487179487182</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42.857142857142854</c:v>
+                  <c:v>51.111111111111107</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>100</c:v>
@@ -3535,10 +3535,10 @@
                   <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>25</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>84.615384615384613</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>100</c:v>
@@ -3547,7 +3547,7 @@
                   <c:v>81.818181818181827</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>68.852459016393439</c:v>
+                  <c:v>76.890756302521012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3878,7 +3878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
@@ -3933,15 +3933,15 @@
       </c>
       <c r="B3" s="9">
         <f>COUNTIF(Authentication!G2:G58,"Valid")</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" s="10">
         <f>COUNTIF(Authentication!G2:G58,"&lt;&gt;Not Applicable")</f>
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D3" s="11">
         <f t="shared" si="0"/>
-        <v>42.857142857142854</v>
+        <v>51.111111111111107</v>
       </c>
       <c r="E3" s="12"/>
     </row>
@@ -4096,7 +4096,7 @@
       </c>
       <c r="B12" s="9">
         <f>COUNTIF('Business Logic'!G2:G9,"Valid")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C12" s="10">
         <f>COUNTIF('Business Logic'!G2:G9,"&lt;&gt;Not Applicable")</f>
@@ -4104,7 +4104,7 @@
       </c>
       <c r="D12" s="11">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="E12" s="12"/>
     </row>
@@ -4114,15 +4114,15 @@
       </c>
       <c r="B13" s="9">
         <f>COUNTIF('Files and Resources'!G2:G16,"Valid")</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C13" s="10">
         <f>COUNTIF('Files and Resources'!G2:G16,"&lt;&gt;Not Applicable")</f>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D13" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>84.615384615384613</v>
       </c>
       <c r="E13" s="12"/>
     </row>
@@ -4168,15 +4168,15 @@
       </c>
       <c r="B16" s="9">
         <f>SUM(B2:B15)</f>
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="C16" s="10">
         <f>SUM(C2:C15)</f>
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D16" s="11">
         <f t="shared" si="0"/>
-        <v>68.852459016393439</v>
+        <v>76.890756302521012</v>
       </c>
       <c r="E16" s="12"/>
     </row>
@@ -4448,7 +4448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:AMJ11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -4880,7 +4880,7 @@
         <v>556</v>
       </c>
       <c r="G5" s="29" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
@@ -4924,7 +4924,7 @@
         <v>560</v>
       </c>
       <c r="G7" s="29" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
@@ -4997,8 +4997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="A7" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
@@ -5063,7 +5063,9 @@
       <c r="F2" s="80" t="s">
         <v>567</v>
       </c>
-      <c r="G2" s="31"/>
+      <c r="G2" s="31" t="s">
+        <v>26</v>
+      </c>
       <c r="H2" s="31"/>
       <c r="I2" s="31"/>
       <c r="J2" s="66"/>
@@ -5083,7 +5085,9 @@
       <c r="F3" s="81" t="s">
         <v>569</v>
       </c>
-      <c r="G3" s="29"/>
+      <c r="G3" s="29" t="s">
+        <v>58</v>
+      </c>
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
       <c r="J3" s="34"/>
@@ -5103,12 +5107,14 @@
       <c r="F4" s="81" t="s">
         <v>571</v>
       </c>
-      <c r="G4" s="29"/>
+      <c r="G4" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
       <c r="J4" s="34"/>
     </row>
-    <row r="5" spans="1:10" ht="31.5">
+    <row r="5" spans="1:10" ht="32.25" thickBot="1">
       <c r="A5" s="1" t="s">
         <v>572</v>
       </c>
@@ -5125,12 +5131,14 @@
       <c r="F5" s="81" t="s">
         <v>574</v>
       </c>
-      <c r="G5" s="29"/>
+      <c r="G5" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
       <c r="J5" s="34"/>
     </row>
-    <row r="6" spans="1:10" ht="48" customHeight="1">
+    <row r="6" spans="1:10" ht="48" customHeight="1" thickBot="1">
       <c r="A6" s="122" t="s">
         <v>575</v>
       </c>
@@ -5147,12 +5155,14 @@
       <c r="F6" s="81" t="s">
         <v>577</v>
       </c>
-      <c r="G6" s="29"/>
+      <c r="G6" s="31" t="s">
+        <v>26</v>
+      </c>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
       <c r="J6" s="34"/>
     </row>
-    <row r="7" spans="1:10" ht="31.5">
+    <row r="7" spans="1:10" ht="32.25" thickBot="1">
       <c r="A7" s="122"/>
       <c r="B7" s="63" t="s">
         <v>578</v>
@@ -5167,12 +5177,14 @@
       <c r="F7" s="81" t="s">
         <v>579</v>
       </c>
-      <c r="G7" s="29"/>
+      <c r="G7" s="29" t="s">
+        <v>58</v>
+      </c>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
       <c r="J7" s="34"/>
     </row>
-    <row r="8" spans="1:10" ht="47.25">
+    <row r="8" spans="1:10" ht="48" thickBot="1">
       <c r="A8" s="122"/>
       <c r="B8" s="63" t="s">
         <v>580</v>
@@ -5187,12 +5199,14 @@
       <c r="F8" s="81" t="s">
         <v>581</v>
       </c>
-      <c r="G8" s="29"/>
+      <c r="G8" s="31" t="s">
+        <v>26</v>
+      </c>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
       <c r="J8" s="34"/>
     </row>
-    <row r="9" spans="1:10" ht="63">
+    <row r="9" spans="1:10" ht="63.75" thickBot="1">
       <c r="A9" s="122"/>
       <c r="B9" s="63" t="s">
         <v>582</v>
@@ -5207,12 +5221,14 @@
       <c r="F9" s="81" t="s">
         <v>583</v>
       </c>
-      <c r="G9" s="29"/>
+      <c r="G9" s="31" t="s">
+        <v>26</v>
+      </c>
       <c r="H9" s="29"/>
       <c r="I9" s="29"/>
       <c r="J9" s="34"/>
     </row>
-    <row r="10" spans="1:10" ht="31.5">
+    <row r="10" spans="1:10" ht="32.25" thickBot="1">
       <c r="A10" s="122"/>
       <c r="B10" s="63" t="s">
         <v>584</v>
@@ -5227,12 +5243,14 @@
       <c r="F10" s="81" t="s">
         <v>585</v>
       </c>
-      <c r="G10" s="29"/>
+      <c r="G10" s="31" t="s">
+        <v>26</v>
+      </c>
       <c r="H10" s="29"/>
       <c r="I10" s="29"/>
       <c r="J10" s="34"/>
     </row>
-    <row r="11" spans="1:10" ht="47.25">
+    <row r="11" spans="1:10" ht="48" thickBot="1">
       <c r="A11" s="122"/>
       <c r="B11" s="63" t="s">
         <v>586</v>
@@ -5247,12 +5265,14 @@
       <c r="F11" s="81" t="s">
         <v>587</v>
       </c>
-      <c r="G11" s="29"/>
+      <c r="G11" s="31" t="s">
+        <v>26</v>
+      </c>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
       <c r="J11" s="34"/>
     </row>
-    <row r="12" spans="1:10" ht="32.25" customHeight="1">
+    <row r="12" spans="1:10" ht="32.25" customHeight="1" thickBot="1">
       <c r="A12" s="122" t="s">
         <v>588</v>
       </c>
@@ -5269,7 +5289,9 @@
       <c r="F12" s="81" t="s">
         <v>590</v>
       </c>
-      <c r="G12" s="29"/>
+      <c r="G12" s="29" t="s">
+        <v>38</v>
+      </c>
       <c r="H12" s="29"/>
       <c r="I12" s="29"/>
       <c r="J12" s="34"/>
@@ -5289,12 +5311,14 @@
       <c r="F13" s="81" t="s">
         <v>592</v>
       </c>
-      <c r="G13" s="29"/>
+      <c r="G13" s="29" t="s">
+        <v>38</v>
+      </c>
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
       <c r="J13" s="34"/>
     </row>
-    <row r="14" spans="1:10" ht="79.5" customHeight="1">
+    <row r="14" spans="1:10" ht="79.5" customHeight="1" thickBot="1">
       <c r="A14" s="122" t="s">
         <v>593</v>
       </c>
@@ -5311,12 +5335,14 @@
       <c r="F14" s="81" t="s">
         <v>595</v>
       </c>
-      <c r="G14" s="29"/>
+      <c r="G14" s="29" t="s">
+        <v>26</v>
+      </c>
       <c r="H14" s="29"/>
       <c r="I14" s="29"/>
       <c r="J14" s="34"/>
     </row>
-    <row r="15" spans="1:10" ht="31.5">
+    <row r="15" spans="1:10" ht="32.25" thickBot="1">
       <c r="A15" s="122"/>
       <c r="B15" s="63" t="s">
         <v>596</v>
@@ -5331,12 +5357,14 @@
       <c r="F15" s="81" t="s">
         <v>597</v>
       </c>
-      <c r="G15" s="29"/>
+      <c r="G15" s="31" t="s">
+        <v>26</v>
+      </c>
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
       <c r="J15" s="34"/>
     </row>
-    <row r="16" spans="1:10" ht="47.25">
+    <row r="16" spans="1:10" ht="48" thickBot="1">
       <c r="A16" s="1" t="s">
         <v>598</v>
       </c>
@@ -5353,7 +5381,9 @@
       <c r="F16" s="82" t="s">
         <v>600</v>
       </c>
-      <c r="G16" s="37"/>
+      <c r="G16" s="31" t="s">
+        <v>26</v>
+      </c>
       <c r="H16" s="37"/>
       <c r="I16" s="37"/>
       <c r="J16" s="39"/>
@@ -5384,7 +5414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -5796,7 +5826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:AMJ26"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -7446,17 +7476,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A26"/>
     <mergeCell ref="A40:A45"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A26"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="G2:G45" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -7477,8 +7507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ58"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView topLeftCell="A5" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
@@ -8345,7 +8375,7 @@
         <v>215</v>
       </c>
       <c r="G35" s="29" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="H35" s="29"/>
       <c r="I35" s="29"/>
@@ -8687,7 +8717,7 @@
         <v>250</v>
       </c>
       <c r="G49" s="29" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="H49" s="29"/>
       <c r="I49" s="29"/>
@@ -8711,7 +8741,7 @@
         <v>253</v>
       </c>
       <c r="G50" s="29" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="H50" s="29"/>
       <c r="I50" s="29"/>
@@ -8735,7 +8765,7 @@
         <v>256</v>
       </c>
       <c r="G51" s="29" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="H51" s="29"/>
       <c r="I51" s="29"/>
@@ -8785,7 +8815,7 @@
         <v>262</v>
       </c>
       <c r="G53" s="29" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="H53" s="29"/>
       <c r="I53" s="29"/>
@@ -8809,7 +8839,7 @@
         <v>264</v>
       </c>
       <c r="G54" s="29" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="H54" s="29"/>
       <c r="I54" s="29"/>
@@ -8913,16 +8943,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="A45:A51"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A55:A58"/>
     <mergeCell ref="A2:A13"/>
     <mergeCell ref="A14:A20"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="A45:A51"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A55:A58"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="G2:G58" xr:uid="{00000000-0002-0000-0200-000000000000}">

--- a/Deliverables/fase2-sprint2/content/ASVS_checklist.xlsx
+++ b/Deliverables/fase2-sprint2/content/ASVS_checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\João Veiga\RiderProjects\desofs2025_wed_pbs_1\Deliverables\fase2-sprint2\content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B942CC5-1B4F-46C3-A339-B5967157D5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E70EE8-DFC5-4165-8B4E-E17C230DB69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" firstSheet="10" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ASVS Results" sheetId="1" r:id="rId1"/>
@@ -3526,7 +3526,7 @@
                   <c:v>91.666666666666657</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29.411764705882355</c:v>
+                  <c:v>47.058823529411761</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>100</c:v>
@@ -3547,7 +3547,7 @@
                   <c:v>81.818181818181827</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>76.890756302521012</c:v>
+                  <c:v>78.151260504201687</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3878,7 +3878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
@@ -4042,7 +4042,7 @@
       </c>
       <c r="B9" s="9">
         <f>COUNTIF('Data Protection'!G2:G18,"Valid")</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C9" s="10">
         <f>COUNTIF('Data Protection'!G2:G18,"&lt;&gt;Not Applicable")</f>
@@ -4050,7 +4050,7 @@
       </c>
       <c r="D9" s="11">
         <f t="shared" si="0"/>
-        <v>29.411764705882355</v>
+        <v>47.058823529411761</v>
       </c>
       <c r="E9" s="12"/>
     </row>
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B16" s="9">
         <f>SUM(B2:B15)</f>
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C16" s="10">
         <f>SUM(C2:C15)</f>
@@ -4176,7 +4176,7 @@
       </c>
       <c r="D16" s="11">
         <f t="shared" si="0"/>
-        <v>76.890756302521012</v>
+        <v>78.151260504201687</v>
       </c>
       <c r="E16" s="12"/>
     </row>
@@ -5826,7 +5826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:AMJ26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -7476,17 +7476,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A26"/>
     <mergeCell ref="A40:A45"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A34:A36"/>
     <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A26"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="G2:G45" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -8943,16 +8943,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="A24:A28"/>
+    <mergeCell ref="A29:A35"/>
     <mergeCell ref="A36:A38"/>
     <mergeCell ref="A39:A44"/>
     <mergeCell ref="A45:A51"/>
     <mergeCell ref="A52:A54"/>
     <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="A14:A20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A35"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" operator="equal" showErrorMessage="1" sqref="G2:G58" xr:uid="{00000000-0002-0000-0200-000000000000}">
@@ -11394,8 +11394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AMJ18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
@@ -11729,7 +11729,7 @@
         <v>498</v>
       </c>
       <c r="G14" s="29" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="H14" s="29"/>
       <c r="I14" s="29"/>
@@ -11751,7 +11751,7 @@
         <v>500</v>
       </c>
       <c r="G15" s="29" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
@@ -11795,7 +11795,7 @@
         <v>504</v>
       </c>
       <c r="G17" s="29" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="H17" s="29"/>
       <c r="I17" s="29"/>
